--- a/Test_Framework/_Tests.xlsx
+++ b/Test_Framework/_Tests.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3281081E-091D-448A-95A7-33010981CAB8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
+    <sheet name="Result" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Result!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,25 +23,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="11">
   <si>
     <t>WorkflowFile</t>
   </si>
   <si>
-    <t>Number of Runs</t>
-  </si>
-  <si>
-    <t>Test_Framework\Tests\_wbTest_Example1.xaml</t>
-  </si>
-  <si>
-    <t>Test_Framework\Tests\_wbTest_Example2.xaml</t>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>AppEx</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Framework\CloseAllApplications.xaml</t>
+  </si>
+  <si>
+    <t>Test_Framework\Test_ProcessTransaction.xaml</t>
+  </si>
+  <si>
+    <t>Framework\InitAllSettings.xaml</t>
+  </si>
+  <si>
+    <t>Framework\InitAllApplications.xaml</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,6 +73,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -75,9 +107,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,20 +390,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.7109375" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" customWidth="1"/>
+    <col min="1" max="2" width="41.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -378,24 +410,415 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B27">
+      <formula1>"Success,BRE,AppEx"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="46.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="135.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B28">
+      <formula1>"Success,BRE,AppEx"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>